--- a/face_api/traffic_db.xlsx
+++ b/face_api/traffic_db.xlsx
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="F11" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="11" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H11" s="12" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -2150,6 +2150,51 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="13" t="inlineStr">
+        <is>
+          <t>VIO024</t>
+        </is>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C28" s="13" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="E28" s="13" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 13:10</t>
+        </is>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>500</v>
+      </c>
+      <c r="H28" s="15" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I28" s="14" t="inlineStr">
+        <is>
+          <t>evidence\VIO024_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -2165,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -2669,6 +2714,58 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>LOG009</t>
+        </is>
+      </c>
+      <c r="B13" s="16" t="inlineStr">
+        <is>
+          <t>VIO024</t>
+        </is>
+      </c>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G13" s="16" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="H13" s="16" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J13" s="16" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 13:15:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>

--- a/face_api/traffic_db.xlsx
+++ b/face_api/traffic_db.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,6 +69,28 @@
     </font>
     <font>
       <name val="Arial"/>
+      <color rgb="FF1A1A1A"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="FFC0392B"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF1A1A1A"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="FFC0392B"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <color rgb="001A1A1A"/>
       <sz val="9"/>
     </font>
@@ -79,7 +101,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -118,6 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDECEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF5FB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDECEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF5FB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FDECEA"/>
       </patternFill>
     </fill>
@@ -127,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,6 +205,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="00CCCCCC"/>
       </left>
       <right style="thin">
@@ -176,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -223,16 +291,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -246,6 +304,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,21 +712,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="22" customWidth="1" style="18" min="1" max="1"/>
-    <col width="14" customWidth="1" style="18" min="2" max="2"/>
-    <col width="18" customWidth="1" style="18" min="3" max="3"/>
-    <col width="38" customWidth="1" style="18" min="4" max="4"/>
-    <col width="20" customWidth="1" style="18" min="5" max="5"/>
-    <col width="16" customWidth="1" style="18" min="6" max="7"/>
-    <col width="13" customWidth="1" style="18" min="8" max="8"/>
+    <col width="22" customWidth="1" style="27" min="1" max="1"/>
+    <col width="14" customWidth="1" style="27" min="2" max="2"/>
+    <col width="40.44140625" customWidth="1" style="27" min="3" max="3"/>
+    <col width="38" customWidth="1" style="27" min="4" max="4"/>
+    <col width="20" customWidth="1" style="27" min="5" max="5"/>
+    <col width="16" customWidth="1" style="27" min="6" max="7"/>
+    <col width="13" customWidth="1" style="27" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.95" customHeight="1" s="18">
+    <row r="1" ht="31.95" customHeight="1" s="27">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -711,7 +806,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16.2" customHeight="1" s="18">
+    <row r="3" ht="16.2" customHeight="1" s="27">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Brie Larson</t>
@@ -749,7 +844,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="28.05" customHeight="1" s="18">
+    <row r="4" ht="28.05" customHeight="1" s="27">
       <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Deepika Padukone</t>
@@ -787,7 +882,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="19.95" customHeight="1" s="18">
+    <row r="5" ht="19.95" customHeight="1" s="27">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Dominique Swain</t>
@@ -825,7 +920,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="19.95" customHeight="1" s="18">
+    <row r="6" ht="19.95" customHeight="1" s="27">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Esther Yu</t>
@@ -863,7 +958,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.95" customHeight="1" s="18">
+    <row r="7" ht="19.95" customHeight="1" s="27">
       <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Kartik Aryan</t>
@@ -901,7 +996,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="19.95" customHeight="1" s="18">
+    <row r="8" ht="19.95" customHeight="1" s="27">
       <c r="A8" s="8" t="inlineStr">
         <is>
           <t>Salman Khan</t>
@@ -928,18 +1023,18 @@
         </is>
       </c>
       <c r="F8" s="9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H8" s="10" t="inlineStr">
+        <v>10500</v>
+      </c>
+      <c r="H8" s="21" t="inlineStr">
         <is>
           <t>Blacklisted</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="19.95" customHeight="1" s="18">
+    <row r="9" ht="19.95" customHeight="1" s="27">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Selena Gomez</t>
@@ -977,7 +1072,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="19.95" customHeight="1" s="18">
+    <row r="10" ht="19.95" customHeight="1" s="27">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Shahrukh Khan</t>
@@ -1004,18 +1099,18 @@
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1800</v>
-      </c>
-      <c r="H10" s="20" t="inlineStr">
+        <v>2300</v>
+      </c>
+      <c r="H10" s="29" t="inlineStr">
         <is>
           <t>Blacklisted</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="19.95" customHeight="1" s="18">
+    <row r="11" ht="19.95" customHeight="1" s="27">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Varun Dhawan</t>
@@ -1053,9 +1148,9 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="19.95" customHeight="1" s="18"/>
-    <row r="13" ht="19.95" customHeight="1" s="18"/>
-    <row r="14" ht="19.95" customHeight="1" s="18"/>
+    <row r="12" ht="19.95" customHeight="1" s="27"/>
+    <row r="13" ht="19.95" customHeight="1" s="27"/>
+    <row r="14" ht="19.95" customHeight="1" s="27"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1067,7 +1162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1076,33 +1171,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="12" customWidth="1" style="18" min="1" max="1"/>
-    <col width="20" customWidth="1" style="18" min="2" max="2"/>
-    <col width="14" customWidth="1" style="18" min="3" max="3"/>
-    <col width="26" customWidth="1" style="18" min="4" max="4"/>
-    <col width="16" customWidth="1" style="18" min="5" max="5"/>
-    <col width="20" customWidth="1" style="18" min="6" max="6"/>
-    <col width="16" customWidth="1" style="18" min="7" max="7"/>
-    <col width="14" customWidth="1" style="18" min="8" max="8"/>
-    <col width="38" customWidth="1" style="18" min="9" max="9"/>
+    <col width="12" customWidth="1" style="27" min="1" max="1"/>
+    <col width="20" customWidth="1" style="27" min="2" max="2"/>
+    <col width="14" customWidth="1" style="27" min="3" max="3"/>
+    <col width="26" customWidth="1" style="27" min="4" max="4"/>
+    <col width="16" customWidth="1" style="27" min="5" max="5"/>
+    <col width="20" customWidth="1" style="27" min="6" max="6"/>
+    <col width="16" customWidth="1" style="27" min="7" max="7"/>
+    <col width="14" customWidth="1" style="27" min="8" max="8"/>
+    <col width="38" customWidth="1" style="27" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.95" customHeight="1" s="18">
-      <c r="A1" s="17" t="inlineStr">
+    <row r="1" ht="31.95" customHeight="1" s="27">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>🚦 TrafficAdmin — Violation Records</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" s="28" t="inlineStr">
         <is>
           <t>Auto-populated by AI Face Recognition on each violation sighting</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="4.05" customHeight="1" s="18"/>
-    <row r="4" ht="28.05" customHeight="1" s="18">
+    <row r="3" ht="4.05" customHeight="1" s="27"/>
+    <row r="4" ht="28.05" customHeight="1" s="27">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Violation ID</t>
@@ -1149,7 +1244,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="19.95" customHeight="1" s="18">
+    <row r="5" ht="19.95" customHeight="1" s="27">
       <c r="A5" s="9" t="inlineStr">
         <is>
           <t>VIO001</t>
@@ -1194,7 +1289,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="19.95" customHeight="1" s="18">
+    <row r="6" ht="19.95" customHeight="1" s="27">
       <c r="A6" s="9" t="inlineStr">
         <is>
           <t>VIO002</t>
@@ -1239,7 +1334,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.95" customHeight="1" s="18">
+    <row r="7" ht="19.95" customHeight="1" s="27">
       <c r="A7" s="9" t="inlineStr">
         <is>
           <t>VIO003</t>
@@ -1284,7 +1379,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="19.95" customHeight="1" s="18">
+    <row r="8" ht="19.95" customHeight="1" s="27">
       <c r="A8" s="9" t="inlineStr">
         <is>
           <t>VIO004</t>
@@ -1329,7 +1424,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="19.95" customHeight="1" s="18">
+    <row r="9" ht="19.95" customHeight="1" s="27">
       <c r="A9" s="9" t="inlineStr">
         <is>
           <t>VIO005</t>
@@ -1374,7 +1469,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="19.95" customHeight="1" s="18">
+    <row r="10" ht="19.95" customHeight="1" s="27">
       <c r="A10" s="9" t="inlineStr">
         <is>
           <t>VIO006</t>
@@ -1419,7 +1514,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="19.95" customHeight="1" s="18">
+    <row r="11" ht="19.95" customHeight="1" s="27">
       <c r="A11" s="9" t="inlineStr">
         <is>
           <t>VIO007</t>
@@ -1464,7 +1559,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="19.95" customHeight="1" s="18">
+    <row r="12" ht="19.95" customHeight="1" s="27">
       <c r="A12" s="9" t="inlineStr">
         <is>
           <t>VIO008</t>
@@ -1509,7 +1604,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="19.95" customHeight="1" s="18">
+    <row r="13" ht="19.95" customHeight="1" s="27">
       <c r="A13" s="9" t="inlineStr">
         <is>
           <t>VIO009</t>
@@ -1554,7 +1649,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="19.95" customHeight="1" s="18">
+    <row r="14" ht="19.95" customHeight="1" s="27">
       <c r="A14" s="9" t="inlineStr">
         <is>
           <t>VIO010</t>
@@ -1599,7 +1694,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="19.95" customHeight="1" s="18">
+    <row r="15" ht="19.95" customHeight="1" s="27">
       <c r="A15" s="6" t="inlineStr">
         <is>
           <t>VIO011</t>
@@ -1644,7 +1739,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="19.95" customHeight="1" s="18">
+    <row r="16" ht="19.95" customHeight="1" s="27">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>VIO012</t>
@@ -1689,7 +1784,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="19.95" customHeight="1" s="18">
+    <row r="17" ht="19.95" customHeight="1" s="27">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>VIO013</t>
@@ -1734,7 +1829,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="19.95" customHeight="1" s="18">
+    <row r="18" ht="19.95" customHeight="1" s="27">
       <c r="A18" s="9" t="inlineStr">
         <is>
           <t>VIO014</t>
@@ -1779,7 +1874,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="19.95" customHeight="1" s="18">
+    <row r="19" ht="19.95" customHeight="1" s="27">
       <c r="A19" s="9" t="inlineStr">
         <is>
           <t>VIO015</t>
@@ -2320,47 +2415,407 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="inlineStr">
+      <c r="A31" s="17" t="inlineStr">
         <is>
           <t>VIO027</t>
         </is>
       </c>
-      <c r="B31" s="22" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Shahrukh Khan</t>
         </is>
       </c>
-      <c r="C31" s="21" t="inlineStr">
+      <c r="C31" s="17" t="inlineStr">
         <is>
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="D31" s="22" t="inlineStr">
+      <c r="D31" s="18" t="inlineStr">
         <is>
           <t>SG Palya</t>
         </is>
       </c>
-      <c r="E31" s="21" t="inlineStr">
+      <c r="E31" s="17" t="inlineStr">
         <is>
           <t>No Helmet</t>
         </is>
       </c>
-      <c r="F31" s="21" t="inlineStr">
+      <c r="F31" s="17" t="inlineStr">
         <is>
           <t>24-Feb-2026 16:02</t>
         </is>
       </c>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="17" t="n">
         <v>500</v>
       </c>
-      <c r="H31" s="23" t="inlineStr">
+      <c r="H31" s="19" t="inlineStr">
         <is>
           <t>Unpaid</t>
         </is>
       </c>
-      <c r="I31" s="22" t="inlineStr">
+      <c r="I31" s="18" t="inlineStr">
         <is>
           <t>evidence\VIO027_Shahrukh_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="22" t="inlineStr">
+        <is>
+          <t>VIO028</t>
+        </is>
+      </c>
+      <c r="B32" s="23" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C32" s="22" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="D32" s="23" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="E32" s="22" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F32" s="22" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:38</t>
+        </is>
+      </c>
+      <c r="G32" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H32" s="24" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I32" s="23" t="inlineStr">
+        <is>
+          <t>evidence\VIO028_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="22" t="inlineStr">
+        <is>
+          <t>VIO029</t>
+        </is>
+      </c>
+      <c r="B33" s="23" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C33" s="22" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="D33" s="23" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="E33" s="22" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F33" s="22" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:38</t>
+        </is>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H33" s="24" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I33" s="23" t="inlineStr">
+        <is>
+          <t>evidence\VIO029_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="22" t="inlineStr">
+        <is>
+          <t>VIO030</t>
+        </is>
+      </c>
+      <c r="B34" s="23" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C34" s="22" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="D34" s="23" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="E34" s="22" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F34" s="22" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:38</t>
+        </is>
+      </c>
+      <c r="G34" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H34" s="24" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I34" s="23" t="inlineStr">
+        <is>
+          <t>evidence\VIO030_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="22" t="inlineStr">
+        <is>
+          <t>VIO031</t>
+        </is>
+      </c>
+      <c r="B35" s="23" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C35" s="22" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="D35" s="23" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="E35" s="22" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F35" s="22" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:38</t>
+        </is>
+      </c>
+      <c r="G35" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H35" s="24" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I35" s="23" t="inlineStr">
+        <is>
+          <t>evidence\VIO031_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="22" t="inlineStr">
+        <is>
+          <t>VIO032</t>
+        </is>
+      </c>
+      <c r="B36" s="23" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C36" s="22" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="D36" s="23" t="inlineStr">
+        <is>
+          <t>Bandra</t>
+        </is>
+      </c>
+      <c r="E36" s="22" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F36" s="22" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 22:20</t>
+        </is>
+      </c>
+      <c r="G36" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H36" s="24" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I36" s="23" t="inlineStr">
+        <is>
+          <t>evidence\VIO032_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="inlineStr">
+        <is>
+          <t>VIO033</t>
+        </is>
+      </c>
+      <c r="B37" s="23" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C37" s="22" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="D37" s="23" t="inlineStr">
+        <is>
+          <t>SG Palya</t>
+        </is>
+      </c>
+      <c r="E37" s="22" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F37" s="22" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 23:14</t>
+        </is>
+      </c>
+      <c r="G37" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H37" s="24" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I37" s="23" t="inlineStr">
+        <is>
+          <t>evidence\VIO033_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="inlineStr">
+        <is>
+          <t>VIO034</t>
+        </is>
+      </c>
+      <c r="B38" s="23" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C38" s="22" t="inlineStr">
+        <is>
+          <t>Gurgaon</t>
+        </is>
+      </c>
+      <c r="D38" s="23" t="inlineStr">
+        <is>
+          <t>Gurgaon</t>
+        </is>
+      </c>
+      <c r="E38" s="22" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F38" s="22" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 07:36</t>
+        </is>
+      </c>
+      <c r="G38" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H38" s="24" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I38" s="23" t="inlineStr">
+        <is>
+          <t>evidence\VIO034_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="30" t="inlineStr">
+        <is>
+          <t>VIO035</t>
+        </is>
+      </c>
+      <c r="B39" s="31" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="C39" s="30" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="D39" s="31" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="E39" s="30" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F39" s="30" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 07:47</t>
+        </is>
+      </c>
+      <c r="G39" s="30" t="n">
+        <v>500</v>
+      </c>
+      <c r="H39" s="32" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I39" s="31" t="inlineStr">
+        <is>
+          <t>evidence\VIO035_Shahrukh_Khan.png</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -2388,33 +2843,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" customWidth="1" style="18" min="1" max="1"/>
-    <col width="12" customWidth="1" style="18" min="2" max="2"/>
-    <col width="20" customWidth="1" style="18" min="3" max="3"/>
-    <col width="18" customWidth="1" style="18" min="4" max="4"/>
-    <col width="14" customWidth="1" style="18" min="5" max="6"/>
-    <col width="24" customWidth="1" style="18" min="7" max="7"/>
-    <col width="16" customWidth="1" style="18" min="8" max="8"/>
-    <col width="22" customWidth="1" style="18" min="9" max="9"/>
-    <col width="20" customWidth="1" style="18" min="10" max="10"/>
+    <col width="10" customWidth="1" style="27" min="1" max="1"/>
+    <col width="12" customWidth="1" style="27" min="2" max="2"/>
+    <col width="20" customWidth="1" style="27" min="3" max="3"/>
+    <col width="18" customWidth="1" style="27" min="4" max="4"/>
+    <col width="14" customWidth="1" style="27" min="5" max="6"/>
+    <col width="24" customWidth="1" style="27" min="7" max="7"/>
+    <col width="16" customWidth="1" style="27" min="8" max="8"/>
+    <col width="22" customWidth="1" style="27" min="9" max="9"/>
+    <col width="20" customWidth="1" style="27" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.95" customHeight="1" s="18">
-      <c r="A1" s="17" t="inlineStr">
+    <row r="1" ht="31.95" customHeight="1" s="27">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>🚦 TrafficAdmin — AI Detection Log</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" s="28" t="inlineStr">
         <is>
           <t>Each row = one face detection event. Auto-written by app.py on /submit-violation</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="4.05" customHeight="1" s="18"/>
-    <row r="4" ht="28.05" customHeight="1" s="18">
+    <row r="3" ht="4.05" customHeight="1" s="27"/>
+    <row r="4" ht="28.05" customHeight="1" s="27">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Log ID</t>
@@ -3039,54 +3494,470 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>LOG012</t>
         </is>
       </c>
-      <c r="B16" s="24" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>VIO027</t>
         </is>
       </c>
-      <c r="C16" s="24" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>Shahrukh Khan</t>
         </is>
       </c>
-      <c r="D16" s="24" t="inlineStr">
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t>4456-9980-3312</t>
         </is>
       </c>
-      <c r="E16" s="24" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>9889012308</t>
         </is>
       </c>
-      <c r="F16" s="24" t="inlineStr">
+      <c r="F16" s="20" t="inlineStr">
         <is>
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="G16" s="24" t="inlineStr">
+      <c r="G16" s="20" t="inlineStr">
         <is>
           <t>SG Palya</t>
         </is>
       </c>
-      <c r="H16" s="24" t="inlineStr">
+      <c r="H16" s="20" t="inlineStr">
         <is>
           <t>No Helmet</t>
         </is>
       </c>
-      <c r="I16" s="24" t="inlineStr">
+      <c r="I16" s="20" t="inlineStr">
         <is>
           <t>55.2%</t>
         </is>
       </c>
-      <c r="J16" s="24" t="inlineStr">
+      <c r="J16" s="20" t="inlineStr">
         <is>
           <t>24-Feb-2026 16:06:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="25" t="inlineStr">
+        <is>
+          <t>LOG013</t>
+        </is>
+      </c>
+      <c r="B17" s="25" t="inlineStr">
+        <is>
+          <t>VIO028</t>
+        </is>
+      </c>
+      <c r="C17" s="25" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D17" s="25" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E17" s="25" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F17" s="25" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="G17" s="25" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="H17" s="25" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I17" s="25" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J17" s="25" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="25" t="inlineStr">
+        <is>
+          <t>LOG014</t>
+        </is>
+      </c>
+      <c r="B18" s="25" t="inlineStr">
+        <is>
+          <t>VIO029</t>
+        </is>
+      </c>
+      <c r="C18" s="25" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D18" s="25" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E18" s="25" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F18" s="25" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="G18" s="25" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="H18" s="25" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I18" s="25" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J18" s="25" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:46:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="25" t="inlineStr">
+        <is>
+          <t>LOG015</t>
+        </is>
+      </c>
+      <c r="B19" s="25" t="inlineStr">
+        <is>
+          <t>VIO030</t>
+        </is>
+      </c>
+      <c r="C19" s="25" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D19" s="25" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E19" s="25" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F19" s="25" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="G19" s="25" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="H19" s="25" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I19" s="25" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J19" s="25" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="25" t="inlineStr">
+        <is>
+          <t>LOG016</t>
+        </is>
+      </c>
+      <c r="B20" s="25" t="inlineStr">
+        <is>
+          <t>VIO031</t>
+        </is>
+      </c>
+      <c r="C20" s="25" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D20" s="25" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E20" s="25" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F20" s="25" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="G20" s="25" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="H20" s="25" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I20" s="25" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J20" s="25" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 21:51:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="25" t="inlineStr">
+        <is>
+          <t>LOG017</t>
+        </is>
+      </c>
+      <c r="B21" s="25" t="inlineStr">
+        <is>
+          <t>VIO032</t>
+        </is>
+      </c>
+      <c r="C21" s="25" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D21" s="25" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E21" s="25" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F21" s="25" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G21" s="25" t="inlineStr">
+        <is>
+          <t>Bandra</t>
+        </is>
+      </c>
+      <c r="H21" s="25" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I21" s="25" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J21" s="25" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 22:20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="25" t="inlineStr">
+        <is>
+          <t>LOG018</t>
+        </is>
+      </c>
+      <c r="B22" s="25" t="inlineStr">
+        <is>
+          <t>VIO033</t>
+        </is>
+      </c>
+      <c r="C22" s="25" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D22" s="25" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E22" s="25" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F22" s="25" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="G22" s="25" t="inlineStr">
+        <is>
+          <t>SG Palya</t>
+        </is>
+      </c>
+      <c r="H22" s="25" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I22" s="25" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J22" s="25" t="inlineStr">
+        <is>
+          <t>24-Feb-2026 23:15:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="25" t="inlineStr">
+        <is>
+          <t>LOG019</t>
+        </is>
+      </c>
+      <c r="B23" s="25" t="inlineStr">
+        <is>
+          <t>VIO034</t>
+        </is>
+      </c>
+      <c r="C23" s="25" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D23" s="25" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E23" s="25" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F23" s="25" t="inlineStr">
+        <is>
+          <t>Gurgaon</t>
+        </is>
+      </c>
+      <c r="G23" s="25" t="inlineStr">
+        <is>
+          <t>Gurgaon</t>
+        </is>
+      </c>
+      <c r="H23" s="25" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I23" s="25" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J23" s="25" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 07:37:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="33" t="inlineStr">
+        <is>
+          <t>LOG020</t>
+        </is>
+      </c>
+      <c r="B24" s="33" t="inlineStr">
+        <is>
+          <t>VIO035</t>
+        </is>
+      </c>
+      <c r="C24" s="33" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="D24" s="33" t="inlineStr">
+        <is>
+          <t>4456-9980-3312</t>
+        </is>
+      </c>
+      <c r="E24" s="33" t="inlineStr">
+        <is>
+          <t>9889012308</t>
+        </is>
+      </c>
+      <c r="F24" s="33" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G24" s="33" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="H24" s="33" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I24" s="33" t="inlineStr">
+        <is>
+          <t>55.2%</t>
+        </is>
+      </c>
+      <c r="J24" s="33" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 07:48:41</t>
         </is>
       </c>
     </row>

--- a/face_api/traffic_db.xlsx
+++ b/face_api/traffic_db.xlsx
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -342,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,12 +1026,12 @@
         </is>
       </c>
       <c r="F8" s="9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>10500</v>
-      </c>
-      <c r="H8" s="21" t="inlineStr">
+        <v>11500</v>
+      </c>
+      <c r="H8" s="34" t="inlineStr">
         <is>
           <t>Blacklisted</t>
         </is>
@@ -1099,10 +1102,10 @@
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2300</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="29" t="inlineStr">
         <is>
@@ -1162,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -2819,6 +2822,276 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="30" t="inlineStr">
+        <is>
+          <t>VIO036</t>
+        </is>
+      </c>
+      <c r="B40" s="31" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="C40" s="30" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="D40" s="31" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="E40" s="30" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F40" s="30" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:26</t>
+        </is>
+      </c>
+      <c r="G40" s="30" t="n">
+        <v>500</v>
+      </c>
+      <c r="H40" s="32" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I40" s="31" t="inlineStr">
+        <is>
+          <t>evidence\VIO036_Shahrukh_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="30" t="inlineStr">
+        <is>
+          <t>VIO037</t>
+        </is>
+      </c>
+      <c r="B41" s="31" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="C41" s="30" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="D41" s="31" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="E41" s="30" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F41" s="30" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:26</t>
+        </is>
+      </c>
+      <c r="G41" s="30" t="n">
+        <v>500</v>
+      </c>
+      <c r="H41" s="32" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I41" s="31" t="inlineStr">
+        <is>
+          <t>evidence\VIO037_Shahrukh_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="30" t="inlineStr">
+        <is>
+          <t>VIO038</t>
+        </is>
+      </c>
+      <c r="B42" s="31" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="C42" s="30" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="D42" s="31" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="E42" s="30" t="inlineStr">
+        <is>
+          <t>Overspeeding</t>
+        </is>
+      </c>
+      <c r="F42" s="30" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:30</t>
+        </is>
+      </c>
+      <c r="G42" s="30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="32" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I42" s="31" t="inlineStr">
+        <is>
+          <t>evidence\VIO038_Shahrukh_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="30" t="inlineStr">
+        <is>
+          <t>VIO039</t>
+        </is>
+      </c>
+      <c r="B43" s="31" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="C43" s="30" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="D43" s="31" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="E43" s="30" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F43" s="30" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:32</t>
+        </is>
+      </c>
+      <c r="G43" s="30" t="n">
+        <v>500</v>
+      </c>
+      <c r="H43" s="32" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I43" s="31" t="inlineStr">
+        <is>
+          <t>evidence\VIO039_Shahrukh_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="30" t="inlineStr">
+        <is>
+          <t>VIO040</t>
+        </is>
+      </c>
+      <c r="B44" s="31" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C44" s="30" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="D44" s="31" t="inlineStr">
+        <is>
+          <t>Koramangala</t>
+        </is>
+      </c>
+      <c r="E44" s="30" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F44" s="30" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:46</t>
+        </is>
+      </c>
+      <c r="G44" s="30" t="n">
+        <v>500</v>
+      </c>
+      <c r="H44" s="32" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I44" s="31" t="inlineStr">
+        <is>
+          <t>evidence\VIO040_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="30" t="inlineStr">
+        <is>
+          <t>VIO041</t>
+        </is>
+      </c>
+      <c r="B45" s="31" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C45" s="30" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="D45" s="31" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="E45" s="30" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="F45" s="30" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 09:12</t>
+        </is>
+      </c>
+      <c r="G45" s="30" t="n">
+        <v>500</v>
+      </c>
+      <c r="H45" s="32" t="inlineStr">
+        <is>
+          <t>Unpaid</t>
+        </is>
+      </c>
+      <c r="I45" s="31" t="inlineStr">
+        <is>
+          <t>evidence\VIO041_Salman_Khan.png</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -2834,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3961,6 +4234,318 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>LOG021</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="inlineStr">
+        <is>
+          <t>VIO036</t>
+        </is>
+      </c>
+      <c r="C25" s="33" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="D25" s="33" t="inlineStr">
+        <is>
+          <t>4456-9980-3312</t>
+        </is>
+      </c>
+      <c r="E25" s="33" t="inlineStr">
+        <is>
+          <t>9889012308</t>
+        </is>
+      </c>
+      <c r="F25" s="33" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G25" s="33" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="H25" s="33" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I25" s="33" t="inlineStr">
+        <is>
+          <t>55.2%</t>
+        </is>
+      </c>
+      <c r="J25" s="33" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="33" t="inlineStr">
+        <is>
+          <t>LOG022</t>
+        </is>
+      </c>
+      <c r="B26" s="33" t="inlineStr">
+        <is>
+          <t>VIO037</t>
+        </is>
+      </c>
+      <c r="C26" s="33" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="D26" s="33" t="inlineStr">
+        <is>
+          <t>4456-9980-3312</t>
+        </is>
+      </c>
+      <c r="E26" s="33" t="inlineStr">
+        <is>
+          <t>9889012308</t>
+        </is>
+      </c>
+      <c r="F26" s="33" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G26" s="33" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="H26" s="33" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I26" s="33" t="inlineStr">
+        <is>
+          <t>55.2%</t>
+        </is>
+      </c>
+      <c r="J26" s="33" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:28:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="33" t="inlineStr">
+        <is>
+          <t>LOG023</t>
+        </is>
+      </c>
+      <c r="B27" s="33" t="inlineStr">
+        <is>
+          <t>VIO038</t>
+        </is>
+      </c>
+      <c r="C27" s="33" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="D27" s="33" t="inlineStr">
+        <is>
+          <t>4456-9980-3312</t>
+        </is>
+      </c>
+      <c r="E27" s="33" t="inlineStr">
+        <is>
+          <t>9889012308</t>
+        </is>
+      </c>
+      <c r="F27" s="33" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G27" s="33" t="inlineStr">
+        <is>
+          <t>Dharavi</t>
+        </is>
+      </c>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>Overspeeding</t>
+        </is>
+      </c>
+      <c r="I27" s="33" t="inlineStr">
+        <is>
+          <t>55.2%</t>
+        </is>
+      </c>
+      <c r="J27" s="33" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:30:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t>LOG024</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="inlineStr">
+        <is>
+          <t>VIO039</t>
+        </is>
+      </c>
+      <c r="C28" s="33" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="D28" s="33" t="inlineStr">
+        <is>
+          <t>4456-9980-3312</t>
+        </is>
+      </c>
+      <c r="E28" s="33" t="inlineStr">
+        <is>
+          <t>9889012308</t>
+        </is>
+      </c>
+      <c r="F28" s="33" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="G28" s="33" t="inlineStr">
+        <is>
+          <t>Harmu</t>
+        </is>
+      </c>
+      <c r="H28" s="33" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I28" s="33" t="inlineStr">
+        <is>
+          <t>55.2%</t>
+        </is>
+      </c>
+      <c r="J28" s="33" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:33:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="33" t="inlineStr">
+        <is>
+          <t>LOG025</t>
+        </is>
+      </c>
+      <c r="B29" s="33" t="inlineStr">
+        <is>
+          <t>VIO040</t>
+        </is>
+      </c>
+      <c r="C29" s="33" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D29" s="33" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E29" s="33" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F29" s="33" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="G29" s="33" t="inlineStr">
+        <is>
+          <t>Koramangala</t>
+        </is>
+      </c>
+      <c r="H29" s="33" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I29" s="33" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J29" s="33" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 08:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="33" t="inlineStr">
+        <is>
+          <t>LOG026</t>
+        </is>
+      </c>
+      <c r="B30" s="33" t="inlineStr">
+        <is>
+          <t>VIO041</t>
+        </is>
+      </c>
+      <c r="C30" s="33" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="D30" s="33" t="inlineStr">
+        <is>
+          <t>6612-5543-9901</t>
+        </is>
+      </c>
+      <c r="E30" s="33" t="inlineStr">
+        <is>
+          <t>9867890106</t>
+        </is>
+      </c>
+      <c r="F30" s="33" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="G30" s="33" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="H30" s="33" t="inlineStr">
+        <is>
+          <t>No Helmet</t>
+        </is>
+      </c>
+      <c r="I30" s="33" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="J30" s="33" t="inlineStr">
+        <is>
+          <t>25-Feb-2026 09:13:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
